--- a/people.xlsx
+++ b/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bonus/workspace/devpool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393CE39-3776-EA4E-B0BA-8CD2E2CBEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7625E5-29B9-8349-BED4-C684807F9C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{44D8F08F-CBB2-1242-8123-0C0DFF477B6D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -185,16 +185,25 @@
   </si>
   <si>
     <t>Mr.49</t>
+  </si>
+  <si>
+    <t>Mr.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538E7B8-1112-FB4E-82FD-F8F31405C5EE}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,7 +803,13 @@
         <v>49</v>
       </c>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>